--- a/data/curriculum_mapping.xlsx
+++ b/data/curriculum_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91B171-EE1B-4BA4-BFE8-081385C393B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BFBBDC-C0C0-4672-BAAE-7E177E36D9E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,20 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경영학전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영미언어문화전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제도유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,15 +42,345 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경영학전공_원전공_2025.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영미언어교육전공_원전공_2025.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공</t>
+    <t>융합전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI빅데이터융합전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI스마트팜융합전공</t>
+  </si>
+  <si>
+    <t>공공헬스케어IT융합전공</t>
+  </si>
+  <si>
+    <t>반도체융합전공</t>
+  </si>
+  <si>
+    <t>스마트애그리푸드시스템전공</t>
+  </si>
+  <si>
+    <t>스마트헬스케어융합전공</t>
+  </si>
+  <si>
+    <t>탄소중립바이오시스템융합전공</t>
+  </si>
+  <si>
+    <t>10. 사물인터넷 MD(소프트웨어융합전공)</t>
+  </si>
+  <si>
+    <t>11. 통신공학 MD(전자공학전공)</t>
+  </si>
+  <si>
+    <t>12. 탄소중립 전기에너지 MD(전기공학전공)</t>
+  </si>
+  <si>
+    <t>13. 브랜드 콘텐츠 MD(시각미디어디자인전공)</t>
+  </si>
+  <si>
+    <t>14. AI보안 MD(정보보안전공)</t>
+  </si>
+  <si>
+    <t>26. (화학)반도체 소재 MD(화학공학전공)</t>
+  </si>
+  <si>
+    <t>27. (ICT)반도체 부품장비 MD(ICT로봇공학전공)</t>
+  </si>
+  <si>
+    <t>28. (기계)반도체 부품장비 MD(기계공학전공)</t>
+  </si>
+  <si>
+    <t>29. (전자)반도체 공정 MD(전자공학전공)</t>
+  </si>
+  <si>
+    <t>30. (전기)반도체 부품장비 MD(전기공학전공)</t>
+  </si>
+  <si>
+    <t>33. 컴퓨터음악 MD(실용음악학전공)</t>
+  </si>
+  <si>
+    <t>37. 유아 교과 수업설계 MD(유아특수보육학전공)</t>
+  </si>
+  <si>
+    <t>1. 식품품질관리 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 유전체 육종번식 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 반려동물 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 축산식품과 HACCP 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 생명공학연구실습 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 인프라 재난방재 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 바이오에너지 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 산업보건 및 위생 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 바이오에너지화공환경 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 사물인터넷 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 통신공학 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 탄소중립 전기에너지 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 브랜드 콘텐츠 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. AI보안 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. (화학)반도체 소재 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. (ICT)반도체 부품장비 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. (기계)반도체 부품장비 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. (전자)반도체 공정 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. (전기)반도체 부품장비 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. 컴퓨터음악 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. 유아 교과 수업설계 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI빅데이터융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI스마트팜융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공헬스케어IT융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트애그리푸드시스템전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트헬스케어융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소중립바이오시스템융합전공_융합_2025.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정(마이크로디그리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 공공 PR MD(문예창작미디어콘텐츠홍보전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 내러티브 디자인 MD(문예창작미디어콘텐츠홍보전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 한영 언어 융합 MD(문예창작미디어콘텐츠홍보전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 정부 및 공기업 재무회계 전문가 MD(행정학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 그로스마케터 과정 MD(경영학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 재무빅데이터분석 전문가 MD(경영학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 푸드콘텐츠기획자 MD(식품영양학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. 식물원학 MD(식물생명환경전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 바이오매스 MD(동물생명과학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 지역관광자원 활성화 MD(지역자원시스템공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. AI 화학공학 MD(화학공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. (AI융합)반도체 소자 MD(AI융합학부 반도체융합전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32. (AI융합)반도체 설계 MD(AI융합학부 반도체융합전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 인공지능과 사회복지 MD(AI반도체융합전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 3D 프린팅 디자이너 MD(제품공간디자인전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. 유니버설디자인 이노베이터 MD(제품공간디자인전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01. 식품품질관리 MD(식품영양학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02. 유전체 육종번식 MD(동물생명과학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03. 반려동물 MD(동물응용과학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04. 축산식품과 HACCP MD(동물응용과학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05. 생명공학연구실습 MD(응용생명공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06. 인프라 재난방재 MD(토목공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07. 바이오에너지 MD(환경공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08. 산업보건 및 위생 MD(안전공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09. 바이오에너지화공환경 MD(화학공학전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-1. (AI융합)반도체 설계 마이크로디그리.png, 32-2. (AI융합)반도체 설계 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-1. 인공지능과 사회복지 마이크로디그리.png, 34-2. 인공지능과 사회복지 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-1. 3D 프린팅 디자이너 마이크로디그리.png, 35-2. 3D 프린팅 디자이너 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36-1. 유니버설디자인 이노베이터 마이크로디그리.png, 36-2. 유니버설디자인 이노베이터 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-1. (AI융합)반도체 소자 마이크로디그리.png, 31-2. (AI융합)반도체 소자 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-1. 식물원학 마이크로디그리.png, 22-2. 식물원학 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-1. 바이오매스 마이크로디그리.png, 23-2. 바이오매스 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-1. 지역관광자원 활성화 마이크로디그리.png, 24-2. 지역관광자원 활성화 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-1. AI 화학공학 마이크로디그리.png, 25-2. AI 화학공학 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-1. 재무빅데이터분석 전문가 마이크로디그리.png, 20-2. 재무빅데이터분석 전문가 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-1. 푸드콘텐츠기획자 마이크로디그리.png, 21-2. 푸드콘텐츠기획자 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-1. 그로스마케터 과정 마이크로디그리.png, 19-2. 그로스마케터 과정 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-1. 정부 및 공기업 재무회계 전문가 마이크로디그리.png, 18-2. 정부 및 공기업 재무회계 전문가 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-1. 한영 언어 융합 마이크로디그리.png, 17-2. 한영 언어 융합 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-1. 내러티브 디자인 마이크로디그리.png, 16-2. 내러티브 디자인 마이크로디그리.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-1. 공공 RP 마이크로디그리.png, 15-2. 공공 RP 마이크로디그리.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +406,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -137,12 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -423,14 +733,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,32 +751,494 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
